--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walid/Desktop/Projet 4 - La Panthère/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E58745-F0CE-CC4F-8E5B-545F86D6298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167A7DE0-8227-3646-BB38-0F5EEA823ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Catégorie</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Language du site web incorrect</t>
   </si>
   <si>
-    <t>L2 - HTML langue à défaut alors que la page est en fr</t>
-  </si>
-  <si>
     <t>L69 - Logo trop petit, le texte en sous-titre n'est pas lisible</t>
   </si>
   <si>
@@ -233,6 +230,18 @@
   </si>
   <si>
     <t>Remplacerla localisation Paris dans les alt par la localisation Lyon</t>
+  </si>
+  <si>
+    <t>L2 - HTML langue à comme valeur "défaut" alors que la page est en fr</t>
+  </si>
+  <si>
+    <t>La balise title contient un point au lieu d'un title pertinent</t>
+  </si>
+  <si>
+    <t>La balise title doit contenir le nom du site ainsi que s localisation</t>
+  </si>
+  <si>
+    <t>Modifier les balise title en y ajoutant le tire et la localistaion</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -636,16 +645,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -659,16 +668,16 @@
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -682,16 +691,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -699,22 +708,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -725,19 +734,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -748,18 +757,20 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -769,18 +780,20 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -790,18 +803,20 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -811,108 +826,131 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="10"/>
+        <v>55</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" t="s">
         <v>66</v>
       </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
       <c r="G16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/walid/Desktop/Projet 4 - La Panthère/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3C9980-C677-2F4C-89A8-C2EBF9575B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB241F-A7B3-5D47-B192-F4E6F49A0344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29540" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -317,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -326,6 +326,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -540,6 +547,30 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -550,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,77 +590,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,10 +891,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,10 +1223,10 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -1208,10 +1249,10 @@
       <c r="A15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -1226,6 +1267,11 @@
       <c r="G15" s="3" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
     </row>
   </sheetData>
   <hyperlinks>
